--- a/Current_Build/Hetek/Portable/Hetek_portable_partslist.xlsx
+++ b/Current_Build/Hetek/Portable/Hetek_portable_partslist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents-D\ALL_PROJECTS\Current_Build\Hetek\Portable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents-D\ALL_PROJECTS\ATFL_PROJECTS\Current_Build\Hetek\Portable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8AC741-A9D5-4D66-AA8D-279C071D4472}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01850BDD-6D11-41E0-817B-9F0D0A958A96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="195" windowWidth="12675" windowHeight="13920" xr2:uid="{4227407D-E686-4EDB-A296-0E45DB807E03}"/>
+    <workbookView xWindow="14835" yWindow="915" windowWidth="12675" windowHeight="13920" xr2:uid="{4227407D-E686-4EDB-A296-0E45DB807E03}"/>
   </bookViews>
   <sheets>
     <sheet name="Hetek_Portable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -72,9 +72,6 @@
     <t>https://www.actuonix.com/Actuonix-PQ12-R-micro-linear-servos-for-RC-p/pq12-r.htm</t>
   </si>
   <si>
-    <t>Linear Actuator R type</t>
-  </si>
-  <si>
     <t>Clevis Pin</t>
   </si>
   <si>
@@ -127,6 +124,57 @@
   </si>
   <si>
     <t>https://www.robotshop.com/ca/en/5-800x480-hdmi-tft-lcd-touch-screen-raspberry-pi.html?gclid=Cj0KCQjwuLPnBRDjARIsACDzGL1L-h28t97oK_1a1Xplu8AhfwIS-UNNW6dAtdtTjMXvbu22CxWtygQaAksWEALw_wcB</t>
+  </si>
+  <si>
+    <t>Linear Actuator R type 20mm</t>
+  </si>
+  <si>
+    <t>Valve8.3_generic</t>
+  </si>
+  <si>
+    <t>Valve8.3_plug</t>
+  </si>
+  <si>
+    <t>Valve8.3_Cap</t>
+  </si>
+  <si>
+    <t>Valve8.3_Bottom</t>
+  </si>
+  <si>
+    <t>Channel Strip 30mm</t>
+  </si>
+  <si>
+    <t>Sensor Body 1</t>
+  </si>
+  <si>
+    <t>D:\Documents-D\ALL_PROJECTS\ATFL_PROJECTS\Current_Build\Hetek\Portable</t>
+  </si>
+  <si>
+    <t>Solenoid Valve</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>20 mm 100:1 6V</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Power Distribution</t>
+  </si>
+  <si>
+    <t>Voltage Regulator</t>
+  </si>
+  <si>
+    <t>Motor Driver</t>
+  </si>
+  <si>
+    <t>Housing Box</t>
   </si>
 </sst>
 </file>
@@ -149,15 +197,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,14 +213,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -186,19 +239,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="40% - Accent4" xfId="1" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="2" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,19 +569,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65A6A34-C039-4002-A1C7-7E8CBA701D35}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,159 +596,251 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
+      <c r="E17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
